--- a/Peter的文献横向整理表格.xlsx
+++ b/Peter的文献横向整理表格.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29868" windowHeight="12780" tabRatio="737" firstSheet="3" activeTab="5"/>
+    <workbookView windowWidth="29868" windowHeight="12935" tabRatio="737" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="projects madrl-ste" sheetId="23" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="world earthsocial climate 研究st" sheetId="22" r:id="rId4"/>
     <sheet name="world social climate 中agent" sheetId="25" r:id="rId5"/>
     <sheet name=" ste、sti、stp" sheetId="10" r:id="rId6"/>
-    <sheet name="演化博弈论" sheetId="26" r:id="rId7"/>
-    <sheet name="tipping points 临界转变机制" sheetId="17" r:id="rId8"/>
-    <sheet name="水资源" sheetId="12" r:id="rId9"/>
-    <sheet name="行星边界" sheetId="13" r:id="rId10"/>
-    <sheet name="ABM" sheetId="16" r:id="rId11"/>
-    <sheet name="AI scientist" sheetId="28" r:id="rId12"/>
-    <sheet name="project-drl-iseec相关ref" sheetId="9" r:id="rId13"/>
+    <sheet name="social norm" sheetId="30" r:id="rId7"/>
+    <sheet name="演化博弈论" sheetId="26" r:id="rId8"/>
+    <sheet name="tipping points 临界转变机制" sheetId="17" r:id="rId9"/>
+    <sheet name="水资源" sheetId="12" r:id="rId10"/>
+    <sheet name="行星边界" sheetId="13" r:id="rId11"/>
+    <sheet name="ABM" sheetId="16" r:id="rId12"/>
+    <sheet name="AI scientist" sheetId="28" r:id="rId13"/>
+    <sheet name="project-drl-iseec相关ref" sheetId="9" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'projects madrl-ste'!$A$1:$P$31</definedName>
@@ -28,8 +29,9 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'world earthsocial climate 研究st'!$A$1:$P$29</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'world social climate 中agent'!$A$1:$P$30</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">' ste、sti、stp'!$A$1:$P$34</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">演化博弈论!$A$1:$P$30</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'AI scientist'!$A$1:$P$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'social norm'!$A$1:$P$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">演化博弈论!$A$1:$P$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'AI scientist'!$A$1:$P$30</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="800">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1460" uniqueCount="808">
   <si>
     <t>是否已读</t>
   </si>
@@ -1941,6 +1943,37 @@
   </si>
   <si>
     <t>反直觉提出了 Social  norm 对于行为转变的负面影响，其实对于部分人群不是完全好</t>
+  </si>
+  <si>
+    <t>Constantino2022</t>
+  </si>
+  <si>
+    <t>Psychological Science in the Public Interest</t>
+  </si>
+  <si>
+    <t>选取了几个代表性的例子来论述 social norm:
+- 德国屋顶太阳能板（Box 2）
+- 美国大学饮食选择（Table 3）
+- Opower 能源报告（美国）</t>
+  </si>
+  <si>
+    <t>social norms, social tipping, climate change, environmental policy, interventions, climate action**</t>
+  </si>
+  <si>
+    <t>1、跨学科综述研究文献：综合了心理学、人类学、社会学和经济学中关于社会规范影响、测量和变化的文献
+2、区分了理论框架，
+3、设计了一套 social norm 研究的框架</t>
+  </si>
+  <si>
+    <t>a. 文章给出了如何设计 social norm 的流程
+- b. 总结了 social norm 
+- c. 提供了值得关注的科学问题的切入点</t>
+  </si>
+  <si>
+    <t>Scaling Up Change  A Critical Review and Practical Guide to Harnessing Social Norms for Climate Action</t>
+  </si>
+  <si>
+    <t>introduction 的参考的cite文献</t>
   </si>
   <si>
     <t>Suzuki2009</t>
@@ -4612,43 +4645,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color rgb="FFEE0000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="8"/>
       <color rgb="FFEE0000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="6"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FFEE0000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <color rgb="FFE50000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
@@ -4681,10 +4690,34 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="6"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="8"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color rgb="FFE50000"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -5235,167 +5268,167 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="6" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5732,7 +5765,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="林鑫制定的excel文献整理" pivot="0" count="0" xr9:uid="{2DA8A55F-677E-48C5-B6D9-40BDCB99A081}"/>
+    <tableStyle name="林鑫制定的excel文献整理" pivot="0" count="0" xr9:uid="{0583C124-838A-4C88-9CE1-CCAE2B60C261}"/>
     <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
       <tableStyleElement type="headerRow" dxfId="16"/>
       <tableStyleElement type="totalRow" dxfId="15"/>
@@ -6150,7 +6183,7 @@
       <c r="K5" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="L5" s="41" t="s">
+      <c r="L5" s="40" t="s">
         <v>24</v>
       </c>
       <c r="M5" s="21" t="s">
@@ -6192,7 +6225,7 @@
       <c r="K6" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="41" t="s">
+      <c r="L6" s="40" t="s">
         <v>32</v>
       </c>
       <c r="M6" s="96" t="s">
@@ -6230,7 +6263,7 @@
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
       <c r="K8" s="9"/>
-      <c r="L8" s="41"/>
+      <c r="L8" s="40"/>
       <c r="M8" s="96"/>
       <c r="O8" s="8"/>
       <c r="P8" s="101"/>
@@ -6264,7 +6297,7 @@
       <c r="E11" s="20"/>
       <c r="I11" s="9"/>
       <c r="K11" s="9"/>
-      <c r="L11" s="41"/>
+      <c r="L11" s="40"/>
       <c r="M11" s="96"/>
       <c r="O11" s="8"/>
       <c r="P11" s="98"/>
@@ -6273,13 +6306,13 @@
     <row r="12" spans="1:17">
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
-      <c r="L12" s="41"/>
+      <c r="L12" s="40"/>
     </row>
     <row r="13" ht="16.2" spans="1:17">
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="H13" s="23"/>
-      <c r="L13" s="41"/>
+      <c r="L13" s="40"/>
       <c r="N13" s="20"/>
       <c r="O13" s="20"/>
       <c r="P13" s="20"/>
@@ -6288,7 +6321,7 @@
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="I14" s="87"/>
-      <c r="L14" s="41"/>
+      <c r="L14" s="40"/>
       <c r="N14" s="20"/>
       <c r="O14" s="20"/>
       <c r="P14" s="20"/>
@@ -6314,35 +6347,35 @@
     <row r="16" spans="1:17">
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
-      <c r="L16" s="41"/>
+      <c r="L16" s="40"/>
       <c r="P16" s="20"/>
     </row>
     <row r="17" spans="1:17">
       <c r="D17" s="20"/>
       <c r="E17" s="20"/>
-      <c r="L17" s="41"/>
+      <c r="L17" s="40"/>
       <c r="P17" s="20"/>
     </row>
     <row r="18" spans="1:17">
       <c r="D18" s="20"/>
       <c r="E18" s="20"/>
-      <c r="L18" s="41"/>
+      <c r="L18" s="40"/>
       <c r="P18" s="20"/>
     </row>
     <row r="19" spans="1:17">
       <c r="D19" s="20"/>
       <c r="E19" s="20"/>
-      <c r="L19" s="41"/>
+      <c r="L19" s="40"/>
       <c r="P19" s="20"/>
       <c r="Q19" s="102"/>
     </row>
     <row r="20" spans="1:17">
-      <c r="L20" s="30"/>
+      <c r="L20" s="29"/>
       <c r="P20" s="20"/>
     </row>
     <row r="21" spans="1:17">
       <c r="E21" s="20"/>
-      <c r="L21" s="30"/>
+      <c r="L21" s="29"/>
       <c r="P21" s="20"/>
     </row>
     <row r="22" spans="1:17">
@@ -6365,29 +6398,29 @@
     </row>
     <row r="23" spans="1:17">
       <c r="E23" s="20"/>
-      <c r="L23" s="30"/>
+      <c r="L23" s="29"/>
       <c r="P23" s="20"/>
     </row>
     <row r="24" spans="1:17">
       <c r="E24" s="20"/>
-      <c r="L24" s="30"/>
+      <c r="L24" s="29"/>
       <c r="P24" s="20"/>
     </row>
     <row r="25" spans="1:17">
       <c r="E25" s="20"/>
-      <c r="L25" s="30"/>
+      <c r="L25" s="29"/>
       <c r="P25" s="20"/>
       <c r="Q25" s="100"/>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="92"/>
-      <c r="L26" s="30"/>
+      <c r="L26" s="29"/>
       <c r="P26" s="20"/>
     </row>
     <row r="27" spans="1:17">
       <c r="E27" s="20"/>
       <c r="J27" s="92"/>
-      <c r="L27" s="30"/>
+      <c r="L27" s="29"/>
       <c r="N27" s="20"/>
       <c r="O27" s="20"/>
       <c r="P27" s="20"/>
@@ -6395,14 +6428,14 @@
     <row r="28" ht="16.2" spans="1:17">
       <c r="E28" s="20"/>
       <c r="J28" s="92"/>
-      <c r="L28" s="30"/>
+      <c r="L28" s="29"/>
       <c r="O28" s="20"/>
       <c r="P28" s="23"/>
     </row>
     <row r="30" spans="1:17">
       <c r="D30" s="20"/>
       <c r="E30" s="28"/>
-      <c r="L30" s="30"/>
+      <c r="L30" s="29"/>
       <c r="M30" s="96"/>
       <c r="O30" s="20"/>
       <c r="P30" s="20"/>
@@ -6410,7 +6443,7 @@
     <row r="31" spans="1:17">
       <c r="D31" s="20"/>
       <c r="E31" s="20"/>
-      <c r="L31" s="30"/>
+      <c r="L31" s="29"/>
       <c r="O31" s="20"/>
       <c r="P31" s="93"/>
     </row>
@@ -6431,6 +6464,802 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O20"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.6"/>
+  <cols>
+    <col min="1" max="1" width="18.4259259259259" style="13" customWidth="1"/>
+    <col min="2" max="2" width="8.88888888888889" style="13"/>
+    <col min="3" max="4" width="8.88888888888889" style="9"/>
+    <col min="5" max="5" width="19.8703703703704" style="9" customWidth="1"/>
+    <col min="6" max="6" width="15.1574074074074" style="9" customWidth="1"/>
+    <col min="7" max="7" width="8.88888888888889" style="9"/>
+    <col min="8" max="8" width="37.1203703703704" style="13" customWidth="1"/>
+    <col min="9" max="9" width="20" style="9" customWidth="1"/>
+    <col min="10" max="10" width="15.0277777777778" style="13" customWidth="1"/>
+    <col min="11" max="11" width="29.3981481481481" style="9" customWidth="1"/>
+    <col min="12" max="12" width="8.88888888888889" style="13"/>
+    <col min="13" max="13" width="27.7037037037037" style="13" customWidth="1"/>
+    <col min="14" max="14" width="26.1388888888889" style="13" customWidth="1"/>
+    <col min="15" max="15" width="56.8611111111111" style="13" hidden="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.88888888888889" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="35" customHeight="1" spans="1:15">
+      <c r="A1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>572</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>573</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="59" t="s">
+        <v>574</v>
+      </c>
+      <c r="L1" s="60" t="s">
+        <v>296</v>
+      </c>
+      <c r="M1" s="61" t="s">
+        <v>575</v>
+      </c>
+      <c r="N1" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="59" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="2" ht="132" spans="1:15">
+      <c r="A2" s="20" t="s">
+        <v>576</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>577</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>578</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>579</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>580</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>581</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="K2" s="62" t="s">
+        <v>582</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>583</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="3" ht="187.2" spans="1:15">
+      <c r="A3" s="20" t="s">
+        <v>585</v>
+      </c>
+      <c r="B3" s="20"/>
+      <c r="C3" s="9" t="s">
+        <v>586</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>587</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>588</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>589</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>590</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>591</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>592</v>
+      </c>
+      <c r="J3" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="109" t="s">
+        <v>593</v>
+      </c>
+      <c r="L3" s="8"/>
+      <c r="N3" s="9" t="s">
+        <v>594</v>
+      </c>
+      <c r="O3" s="12"/>
+    </row>
+    <row r="4" ht="198" spans="1:15">
+      <c r="A4" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>577</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>596</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>579</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>597</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>598</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>599</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="K4" s="62" t="s">
+        <v>600</v>
+      </c>
+      <c r="O4" s="64" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="5" ht="125.4" spans="1:15">
+      <c r="A5" s="23" t="s">
+        <v>602</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="C5" s="65" t="s">
+        <v>603</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>604</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>605</v>
+      </c>
+      <c r="I5" s="65" t="s">
+        <v>606</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="K5" s="62" t="s">
+        <v>607</v>
+      </c>
+      <c r="O5" s="66" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="6" ht="145.2" spans="1:15">
+      <c r="A6" s="23" t="s">
+        <v>609</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="65" t="s">
+        <v>610</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>611</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>612</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>613</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>614</v>
+      </c>
+      <c r="I6" s="65" t="s">
+        <v>615</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>616</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>617</v>
+      </c>
+      <c r="O6" s="67" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="7" ht="156" spans="1:15">
+      <c r="A7" s="9" t="s">
+        <v>619</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="65" t="s">
+        <v>620</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>622</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="G7" s="68" t="s">
+        <v>623</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>624</v>
+      </c>
+      <c r="I7" s="65" t="s">
+        <v>625</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="K7" s="62" t="s">
+        <v>626</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>627</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>628</v>
+      </c>
+      <c r="O7" s="69" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="8" ht="156.6" spans="1:15">
+      <c r="A8" s="9" t="s">
+        <v>630</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="65" t="s">
+        <v>631</v>
+      </c>
+      <c r="D8" s="68" t="s">
+        <v>632</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>635</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>636</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>637</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="K8" s="62" t="s">
+        <v>638</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>639</v>
+      </c>
+      <c r="O8" s="67" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="9" ht="93.6" spans="1:15">
+      <c r="A9" s="9" t="s">
+        <v>641</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="65" t="s">
+        <v>642</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>643</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>644</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="K9" s="62" t="s">
+        <v>645</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>646</v>
+      </c>
+      <c r="O9" s="70" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="10" ht="158.4" spans="1:15">
+      <c r="A10" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>649</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>643</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>650</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>651</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>652</v>
+      </c>
+      <c r="O10" s="70" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="11" ht="156" spans="1:15">
+      <c r="A11" s="9" t="s">
+        <v>654</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>655</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>643</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>656</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>657</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>658</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>659</v>
+      </c>
+      <c r="N11" s="9" t="s">
+        <v>660</v>
+      </c>
+      <c r="O11" s="69" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="12" ht="158.4" spans="1:15">
+      <c r="A12" s="23" t="s">
+        <v>662</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="65" t="s">
+        <v>663</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>665</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="I12" s="65" t="s">
+        <v>667</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>668</v>
+      </c>
+      <c r="K12" s="62" t="s">
+        <v>669</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>670</v>
+      </c>
+      <c r="O12" s="64" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="13" ht="38" customHeight="1" spans="1:15">
+      <c r="A13" s="71" t="s">
+        <v>672</v>
+      </c>
+      <c r="B13" s="71"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="71"/>
+      <c r="K13" s="72"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="71"/>
+      <c r="N13" s="71"/>
+      <c r="O13" s="71"/>
+    </row>
+    <row r="14" ht="124.8" spans="1:15">
+      <c r="A14" s="13" t="s">
+        <v>673</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>674</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>675</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>676</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>677</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="108" t="s">
+        <v>678</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>679</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="15" ht="109.2" spans="1:15">
+      <c r="A15" s="13" t="s">
+        <v>681</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>674</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>675</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>676</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>677</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" s="108" t="s">
+        <v>682</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>683</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>684</v>
+      </c>
+      <c r="M15" s="9" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="16" ht="62.4" spans="1:15">
+      <c r="A16" s="13" t="s">
+        <v>686</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>687</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>688</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>689</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>690</v>
+      </c>
+      <c r="J16" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>691</v>
+      </c>
+      <c r="M16" s="9" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="17" ht="93.6" spans="1:13">
+      <c r="A17" s="13" t="s">
+        <v>693</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>694</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>695</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>696</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>697</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>698</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>699</v>
+      </c>
+      <c r="J17" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>700</v>
+      </c>
+      <c r="M17" s="9" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="18" ht="140.4" spans="1:13">
+      <c r="A18" s="13" t="s">
+        <v>702</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>703</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>704</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>705</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>706</v>
+      </c>
+      <c r="H18" s="108" t="s">
+        <v>707</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>708</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>709</v>
+      </c>
+      <c r="M18" s="9"/>
+    </row>
+    <row r="19" ht="156" spans="1:13">
+      <c r="A19" s="13" t="s">
+        <v>710</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>610</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>711</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>712</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>713</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>714</v>
+      </c>
+      <c r="H19" s="108" t="s">
+        <v>715</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>716</v>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="K19" s="9" t="s">
+        <v>717</v>
+      </c>
+      <c r="M19" s="9" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="20" ht="124.8" spans="1:13">
+      <c r="A20" s="13" t="s">
+        <v>719</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>720</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>721</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>722</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20" s="108" t="s">
+        <v>723</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>724</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>725</v>
+      </c>
+      <c r="M20" s="9" t="s">
+        <v>726</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A13:O13"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:O14"/>
@@ -6451,49 +7280,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="34" t="s">
-        <v>539</v>
-      </c>
-      <c r="B1" s="35" t="s">
+      <c r="A1" s="33" t="s">
+        <v>547</v>
+      </c>
+      <c r="B1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="37" t="s">
-        <v>719</v>
-      </c>
-      <c r="E1" s="37" t="s">
-        <v>541</v>
-      </c>
-      <c r="F1" s="35" t="s">
+      <c r="D1" s="36" t="s">
+        <v>727</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>549</v>
+      </c>
+      <c r="F1" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="35" t="s">
-        <v>542</v>
-      </c>
-      <c r="H1" s="36" t="s">
-        <v>720</v>
-      </c>
-      <c r="I1" s="38" t="s">
+      <c r="G1" s="34" t="s">
+        <v>550</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>728</v>
+      </c>
+      <c r="I1" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="35" t="s">
+      <c r="J1" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="35" t="s">
-        <v>544</v>
-      </c>
-      <c r="L1" s="35" t="s">
-        <v>545</v>
-      </c>
-      <c r="M1" s="35" t="s">
+      <c r="K1" s="34" t="s">
+        <v>552</v>
+      </c>
+      <c r="L1" s="34" t="s">
+        <v>553</v>
+      </c>
+      <c r="M1" s="34" t="s">
         <v>296</v>
       </c>
-      <c r="N1" s="36" t="s">
-        <v>547</v>
-      </c>
-      <c r="O1" s="39" t="s">
+      <c r="N1" s="35" t="s">
+        <v>555</v>
+      </c>
+      <c r="O1" s="38" t="s">
         <v>15</v>
       </c>
     </row>
@@ -6515,7 +7344,7 @@
     <row r="3" customFormat="1" spans="1:15">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="40"/>
+      <c r="C3" s="39"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -6529,202 +7358,202 @@
     </row>
     <row r="4" customFormat="1" ht="75.6" spans="1:15">
       <c r="A4" s="15" t="s">
-        <v>721</v>
+        <v>729</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>722</v>
-      </c>
-      <c r="D4" s="41" t="s">
+        <v>730</v>
+      </c>
+      <c r="D4" s="40" t="s">
         <v>41</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>723</v>
-      </c>
-      <c r="F4" s="41" t="s">
-        <v>724</v>
+        <v>731</v>
+      </c>
+      <c r="F4" s="40" t="s">
+        <v>732</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="H4" s="56" t="s">
-        <v>725</v>
-      </c>
-      <c r="I4" s="47" t="s">
-        <v>726</v>
-      </c>
-      <c r="J4" s="41" t="s">
+      <c r="H4" s="55" t="s">
+        <v>733</v>
+      </c>
+      <c r="I4" s="46" t="s">
+        <v>734</v>
+      </c>
+      <c r="J4" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="K4" s="42" t="s">
-        <v>727</v>
+      <c r="K4" s="41" t="s">
+        <v>735</v>
       </c>
       <c r="L4" s="2"/>
       <c r="M4" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="N4" s="57" t="s">
-        <v>728</v>
+        <v>583</v>
+      </c>
+      <c r="N4" s="56" t="s">
+        <v>736</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>729</v>
+        <v>737</v>
       </c>
     </row>
     <row r="5" customFormat="1" ht="67.2" spans="1:15">
       <c r="A5" s="4" t="s">
-        <v>730</v>
+        <v>738</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>349</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>739</v>
+      </c>
+      <c r="D5" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="15" t="s">
         <v>731</v>
       </c>
-      <c r="D5" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>723</v>
-      </c>
-      <c r="F5" s="41"/>
+      <c r="F5" s="40"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4" t="s">
-        <v>732</v>
+        <v>740</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="J5" s="41" t="s">
+        <v>741</v>
+      </c>
+      <c r="J5" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="44"/>
-      <c r="N5" s="57" t="s">
-        <v>734</v>
+      <c r="K5" s="43"/>
+      <c r="N5" s="56" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="6" customFormat="1" ht="101.4" spans="1:15">
       <c r="A6" s="4" t="s">
-        <v>735</v>
+        <v>743</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="D6" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>738</v>
+        <v>746</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>739</v>
+        <v>747</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>740</v>
+        <v>748</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>741</v>
-      </c>
-      <c r="I6" s="47" t="s">
-        <v>742</v>
-      </c>
-      <c r="J6" s="41" t="s">
+        <v>749</v>
+      </c>
+      <c r="I6" s="46" t="s">
+        <v>750</v>
+      </c>
+      <c r="J6" s="40" t="s">
         <v>24</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>743</v>
-      </c>
-      <c r="N6" s="58" t="s">
-        <v>744</v>
-      </c>
-      <c r="O6" s="59" t="s">
-        <v>745</v>
+        <v>751</v>
+      </c>
+      <c r="N6" s="57" t="s">
+        <v>752</v>
+      </c>
+      <c r="O6" s="58" t="s">
+        <v>753</v>
       </c>
     </row>
     <row r="7" customFormat="1" ht="96" spans="1:15">
       <c r="A7" s="4" t="s">
-        <v>746</v>
+        <v>754</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="46" t="s">
         <v>411</v>
       </c>
-      <c r="D7" s="50" t="s">
+      <c r="D7" s="49" t="s">
         <v>29</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>747</v>
+        <v>755</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="50"/>
+      <c r="G7" s="49"/>
       <c r="H7" s="4" t="s">
-        <v>748</v>
-      </c>
-      <c r="I7" s="44" t="s">
-        <v>749</v>
-      </c>
-      <c r="J7" s="41" t="s">
+        <v>756</v>
+      </c>
+      <c r="I7" s="43" t="s">
+        <v>757</v>
+      </c>
+      <c r="J7" s="40" t="s">
         <v>32</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>750</v>
-      </c>
-      <c r="N7" s="45" t="s">
-        <v>751</v>
+        <v>758</v>
+      </c>
+      <c r="N7" s="44" t="s">
+        <v>759</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>752</v>
+        <v>760</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="1:15">
-      <c r="A8" s="47"/>
+      <c r="A8" s="46"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="52"/>
+      <c r="C8" s="51"/>
       <c r="D8"/>
       <c r="E8" s="4"/>
       <c r="F8"/>
-      <c r="G8" s="42"/>
+      <c r="G8" s="41"/>
       <c r="H8" s="4"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="42"/>
-      <c r="N8" s="53"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="41"/>
+      <c r="N8" s="52"/>
       <c r="O8" s="4"/>
     </row>
     <row r="9" customFormat="1" ht="15.6" spans="1:15">
       <c r="A9" s="4"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="42"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="41"/>
       <c r="E9" s="4"/>
       <c r="F9"/>
       <c r="G9"/>
       <c r="H9" s="4"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="42"/>
-      <c r="N9" s="51"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="41"/>
+      <c r="N9" s="50"/>
       <c r="O9" s="4"/>
     </row>
     <row r="10" customFormat="1" spans="1:15">
       <c r="A10" s="4"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="47"/>
+      <c r="C10" s="46"/>
       <c r="D10"/>
       <c r="E10" s="4"/>
       <c r="F10"/>
       <c r="G10"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="42"/>
-      <c r="N10" s="54"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="41"/>
+      <c r="N10" s="53"/>
       <c r="O10" s="4"/>
     </row>
     <row r="11" customFormat="1" spans="1:15">
@@ -6736,8 +7565,8 @@
       <c r="F11"/>
       <c r="G11"/>
       <c r="I11" s="4"/>
-      <c r="J11" s="41"/>
-      <c r="N11" s="54"/>
+      <c r="J11" s="40"/>
+      <c r="N11" s="53"/>
     </row>
     <row r="12" customFormat="1" spans="1:15">
       <c r="A12" s="4"/>
@@ -6749,24 +7578,24 @@
       <c r="G12"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
-      <c r="J12" s="41"/>
+      <c r="J12" s="40"/>
       <c r="K12" s="4"/>
-      <c r="N12" s="55"/>
+      <c r="N12" s="54"/>
       <c r="O12" s="4"/>
     </row>
     <row r="13" customFormat="1" ht="15.6" spans="1:15">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="47"/>
+      <c r="C13" s="46"/>
       <c r="D13"/>
       <c r="E13" s="4"/>
       <c r="F13"/>
       <c r="G13"/>
       <c r="H13" s="4"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="42"/>
-      <c r="N13" s="45"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="41"/>
+      <c r="N13" s="44"/>
       <c r="O13" s="4"/>
     </row>
     <row r="14" customFormat="1" spans="1:15">
@@ -6778,7 +7607,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:O14"/>
@@ -6799,49 +7628,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="34" t="s">
-        <v>539</v>
-      </c>
-      <c r="B1" s="35" t="s">
+      <c r="A1" s="33" t="s">
+        <v>547</v>
+      </c>
+      <c r="B1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="37" t="s">
-        <v>719</v>
-      </c>
-      <c r="E1" s="37" t="s">
-        <v>541</v>
-      </c>
-      <c r="F1" s="35" t="s">
+      <c r="D1" s="36" t="s">
+        <v>727</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>549</v>
+      </c>
+      <c r="F1" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="35" t="s">
-        <v>542</v>
-      </c>
-      <c r="H1" s="36" t="s">
-        <v>543</v>
-      </c>
-      <c r="I1" s="38" t="s">
+      <c r="G1" s="34" t="s">
+        <v>550</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>551</v>
+      </c>
+      <c r="I1" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="35" t="s">
+      <c r="J1" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="35" t="s">
-        <v>544</v>
-      </c>
-      <c r="L1" s="35" t="s">
-        <v>545</v>
-      </c>
-      <c r="M1" s="35" t="s">
+      <c r="K1" s="34" t="s">
+        <v>552</v>
+      </c>
+      <c r="L1" s="34" t="s">
+        <v>553</v>
+      </c>
+      <c r="M1" s="34" t="s">
         <v>296</v>
       </c>
-      <c r="N1" s="36" t="s">
-        <v>547</v>
-      </c>
-      <c r="O1" s="39" t="s">
+      <c r="N1" s="35" t="s">
+        <v>555</v>
+      </c>
+      <c r="O1" s="38" t="s">
         <v>15</v>
       </c>
     </row>
@@ -6863,7 +7692,7 @@
     <row r="3" customFormat="1" spans="1:15">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="40"/>
+      <c r="C3" s="39"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -6877,136 +7706,136 @@
     </row>
     <row r="4" customFormat="1" ht="96" spans="1:15">
       <c r="A4" s="2" t="s">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>569</v>
-      </c>
-      <c r="D4" s="41" t="s">
-        <v>570</v>
-      </c>
-      <c r="E4" s="41" t="s">
-        <v>571</v>
-      </c>
-      <c r="F4" s="41" t="s">
+        <v>577</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>578</v>
+      </c>
+      <c r="E4" s="40" t="s">
+        <v>579</v>
+      </c>
+      <c r="F4" s="40" t="s">
         <v>160</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>300</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>573</v>
-      </c>
-      <c r="J4" s="41" t="s">
+        <v>581</v>
+      </c>
+      <c r="J4" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="K4" s="42" t="s">
-        <v>753</v>
+      <c r="K4" s="41" t="s">
+        <v>761</v>
       </c>
       <c r="L4" s="2"/>
       <c r="M4" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="N4" s="43" t="s">
-        <v>576</v>
+        <v>583</v>
+      </c>
+      <c r="N4" s="42" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:15">
       <c r="A5" s="4"/>
       <c r="B5" s="2"/>
       <c r="C5" s="4"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="44"/>
-      <c r="N5" s="45"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="43"/>
+      <c r="N5" s="44"/>
     </row>
     <row r="6" customFormat="1" ht="69" spans="1:15">
-      <c r="A6" s="46" t="s">
-        <v>754</v>
+      <c r="A6" s="45" t="s">
+        <v>762</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="47" t="s">
-        <v>755</v>
+      <c r="C6" s="46" t="s">
+        <v>763</v>
       </c>
       <c r="D6"/>
       <c r="E6"/>
       <c r="F6"/>
       <c r="G6"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="47" t="s">
-        <v>756</v>
-      </c>
-      <c r="J6" s="41"/>
-      <c r="K6" s="42"/>
-      <c r="N6" s="48"/>
+      <c r="I6" s="46" t="s">
+        <v>764</v>
+      </c>
+      <c r="J6" s="40"/>
+      <c r="K6" s="41"/>
+      <c r="N6" s="47"/>
     </row>
     <row r="7" customFormat="1" ht="15.6" spans="1:15">
-      <c r="A7" s="49"/>
+      <c r="A7" s="48"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
       <c r="E7" s="4"/>
       <c r="F7"/>
-      <c r="G7" s="50"/>
+      <c r="G7" s="49"/>
       <c r="H7" s="4"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="41"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="40"/>
       <c r="K7"/>
-      <c r="N7" s="51"/>
+      <c r="N7" s="50"/>
       <c r="O7" s="4"/>
     </row>
     <row r="8" customFormat="1" spans="1:15">
-      <c r="A8" s="47"/>
+      <c r="A8" s="46"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="52"/>
+      <c r="C8" s="51"/>
       <c r="D8"/>
       <c r="E8" s="4"/>
       <c r="F8"/>
-      <c r="G8" s="42"/>
+      <c r="G8" s="41"/>
       <c r="H8" s="4"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="42"/>
-      <c r="N8" s="53"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="41"/>
+      <c r="N8" s="52"/>
       <c r="O8" s="4"/>
     </row>
     <row r="9" customFormat="1" ht="15.6" spans="1:15">
       <c r="A9" s="4"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="42"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="41"/>
       <c r="E9" s="4"/>
       <c r="F9"/>
       <c r="G9"/>
       <c r="H9" s="4"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="42"/>
-      <c r="N9" s="51"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="41"/>
+      <c r="N9" s="50"/>
       <c r="O9" s="4"/>
     </row>
     <row r="10" customFormat="1" spans="1:15">
       <c r="A10" s="4"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="47"/>
+      <c r="C10" s="46"/>
       <c r="D10"/>
       <c r="E10" s="4"/>
       <c r="F10"/>
       <c r="G10"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="42"/>
-      <c r="N10" s="54"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="41"/>
+      <c r="N10" s="53"/>
       <c r="O10" s="4"/>
     </row>
     <row r="11" customFormat="1" spans="1:15">
@@ -7018,8 +7847,8 @@
       <c r="F11"/>
       <c r="G11"/>
       <c r="I11" s="4"/>
-      <c r="J11" s="41"/>
-      <c r="N11" s="54"/>
+      <c r="J11" s="40"/>
+      <c r="N11" s="53"/>
     </row>
     <row r="12" customFormat="1" spans="1:15">
       <c r="A12" s="4"/>
@@ -7031,24 +7860,24 @@
       <c r="G12"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
-      <c r="J12" s="41"/>
+      <c r="J12" s="40"/>
       <c r="K12" s="4"/>
-      <c r="N12" s="55"/>
+      <c r="N12" s="54"/>
       <c r="O12" s="4"/>
     </row>
     <row r="13" customFormat="1" ht="15.6" spans="1:15">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="47"/>
+      <c r="C13" s="46"/>
       <c r="D13"/>
       <c r="E13" s="4"/>
       <c r="F13"/>
       <c r="G13"/>
       <c r="H13" s="4"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="42"/>
-      <c r="N13" s="45"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="41"/>
+      <c r="N13" s="44"/>
       <c r="O13" s="4"/>
     </row>
     <row r="14" customFormat="1" spans="1:15">
@@ -7060,7 +7889,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:Q31"/>
@@ -7164,31 +7993,31 @@
         <v>2025</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>757</v>
-      </c>
-      <c r="D5" s="29" t="s">
-        <v>758</v>
+        <v>765</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>766</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>759</v>
+        <v>767</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>760</v>
+        <v>768</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9" t="s">
-        <v>761</v>
-      </c>
-      <c r="L5" s="30"/>
+        <v>769</v>
+      </c>
+      <c r="L5" s="29"/>
       <c r="M5" s="9" t="s">
-        <v>762</v>
+        <v>770</v>
       </c>
       <c r="N5" s="13"/>
       <c r="O5" s="9"/>
-      <c r="P5" s="31"/>
+      <c r="P5" s="30"/>
       <c r="Q5" s="13"/>
     </row>
     <row r="6" ht="153" customHeight="1" spans="1:17">
@@ -7203,7 +8032,7 @@
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
-      <c r="L6" s="30"/>
+      <c r="L6" s="29"/>
       <c r="M6" s="9"/>
       <c r="N6" s="13"/>
       <c r="O6" s="9"/>
@@ -7222,12 +8051,12 @@
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="31"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="30"/>
       <c r="N7" s="13"/>
       <c r="O7" s="9"/>
       <c r="P7" s="9"/>
-      <c r="Q7" s="32"/>
+      <c r="Q7" s="31"/>
     </row>
     <row r="8" ht="115" customHeight="1" spans="1:17">
       <c r="A8" s="13"/>
@@ -7241,12 +8070,12 @@
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="13"/>
-      <c r="L8" s="30"/>
+      <c r="L8" s="29"/>
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
       <c r="O8" s="9"/>
       <c r="P8" s="9"/>
-      <c r="Q8" s="33"/>
+      <c r="Q8" s="32"/>
     </row>
     <row r="9" ht="110" customHeight="1" spans="1:17">
       <c r="A9" s="13"/>
@@ -7695,7 +8524,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:O28"/>
@@ -7733,7 +8562,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>564</v>
+        <v>572</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>6</v>
@@ -7745,7 +8574,7 @@
         <v>8</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>543</v>
+        <v>551</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>10</v>
@@ -7754,16 +8583,16 @@
         <v>11</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>544</v>
+        <v>552</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>545</v>
+        <v>553</v>
       </c>
       <c r="M1" s="7" t="s">
         <v>296</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>547</v>
+        <v>555</v>
       </c>
       <c r="O1" s="7" t="s">
         <v>15</v>
@@ -7788,13 +8617,13 @@
         <v>300</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>763</v>
+        <v>771</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>144</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>660</v>
+        <v>668</v>
       </c>
       <c r="K2" s="11"/>
       <c r="L2" s="8"/>
@@ -7804,7 +8633,7 @@
     </row>
     <row r="3" s="2" customFormat="1" ht="94.05" customHeight="1" spans="1:15">
       <c r="A3" s="14" t="s">
-        <v>764</v>
+        <v>772</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="9"/>
@@ -7834,13 +8663,13 @@
       <c r="F4" s="10"/>
       <c r="G4" s="9"/>
       <c r="H4" s="8" t="s">
-        <v>765</v>
+        <v>773</v>
       </c>
       <c r="I4" s="9"/>
       <c r="J4" s="10"/>
       <c r="K4" s="11"/>
       <c r="L4" s="8" t="s">
-        <v>766</v>
+        <v>774</v>
       </c>
       <c r="M4" s="8"/>
       <c r="N4" s="12"/>
@@ -7848,13 +8677,13 @@
     </row>
     <row r="5" s="2" customFormat="1" ht="81.7" customHeight="1" spans="1:15">
       <c r="A5" s="8" t="s">
-        <v>767</v>
+        <v>775</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>39</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>768</v>
+        <v>776</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
@@ -7865,16 +8694,16 @@
         <v>300</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>769</v>
+        <v>777</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>770</v>
+        <v>778</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>660</v>
+        <v>668</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>771</v>
+        <v>779</v>
       </c>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
@@ -7908,7 +8737,7 @@
     </row>
     <row r="8" s="2" customFormat="1" ht="100.05" customHeight="1" spans="1:15">
       <c r="A8" s="8" t="s">
-        <v>772</v>
+        <v>780</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="8"/>
@@ -7922,7 +8751,7 @@
       <c r="K8" s="8"/>
       <c r="L8" s="10"/>
       <c r="M8" s="10" t="s">
-        <v>773</v>
+        <v>781</v>
       </c>
       <c r="N8" s="17"/>
     </row>
@@ -7960,13 +8789,13 @@
     </row>
     <row r="11" s="2" customFormat="1" ht="195" spans="1:15">
       <c r="A11" s="9" t="s">
-        <v>774</v>
+        <v>782</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>775</v>
+        <v>783</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
@@ -7986,25 +8815,25 @@
         <v>3</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>776</v>
+        <v>784</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>777</v>
+        <v>785</v>
       </c>
       <c r="M11" s="8"/>
       <c r="N11" s="12" t="s">
-        <v>778</v>
+        <v>786</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" ht="158.4" spans="1:15">
       <c r="A12" s="9" t="s">
-        <v>779</v>
+        <v>787</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>39</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>780</v>
+        <v>788</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
@@ -8015,19 +8844,19 @@
         <v>300</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>781</v>
+        <v>789</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="10"/>
       <c r="K12" s="11" t="s">
-        <v>782</v>
+        <v>790</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>553</v>
+        <v>561</v>
       </c>
       <c r="M12" s="8"/>
       <c r="N12" s="12" t="s">
-        <v>778</v>
+        <v>786</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" ht="358.8" spans="1:15">
@@ -8039,15 +8868,15 @@
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
       <c r="H13" s="8" t="s">
-        <v>783</v>
+        <v>791</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="9" t="s">
-        <v>784</v>
+        <v>792</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>785</v>
+        <v>793</v>
       </c>
       <c r="M13" s="8"/>
       <c r="N13" s="17"/>
@@ -8061,13 +8890,13 @@
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
       <c r="H14" s="8" t="s">
-        <v>786</v>
+        <v>794</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="8" t="s">
-        <v>787</v>
+        <v>795</v>
       </c>
       <c r="M14" s="8"/>
       <c r="N14" s="17"/>
@@ -8081,17 +8910,17 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8" t="s">
-        <v>788</v>
+        <v>796</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>789</v>
+        <v>797</v>
       </c>
       <c r="J15" s="8"/>
       <c r="K15" s="9" t="s">
-        <v>790</v>
+        <v>798</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>791</v>
+        <v>799</v>
       </c>
       <c r="M15" s="8"/>
       <c r="N15" s="17"/>
@@ -8105,21 +8934,21 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8" t="s">
-        <v>792</v>
+        <v>800</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>793</v>
+        <v>801</v>
       </c>
       <c r="J16" s="8"/>
       <c r="K16" s="9" t="s">
-        <v>794</v>
+        <v>802</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>795</v>
+        <v>803</v>
       </c>
       <c r="M16" s="8"/>
       <c r="N16" s="12" t="s">
-        <v>796</v>
+        <v>804</v>
       </c>
     </row>
     <row r="17" s="2" customFormat="1" ht="264" spans="1:14">
@@ -8132,16 +8961,16 @@
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="I17" s="9" t="s">
-        <v>797</v>
+        <v>805</v>
       </c>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="8" t="s">
-        <v>798</v>
+        <v>806</v>
       </c>
       <c r="M17" s="8"/>
       <c r="N17" s="12" t="s">
-        <v>799</v>
+        <v>807</v>
       </c>
     </row>
     <row r="18" s="2" customFormat="1" ht="15" spans="1:14">
@@ -8254,7 +9083,7 @@
   <dimension ref="A1:Q42"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
     </sheetView>
@@ -8395,7 +9224,7 @@
       <c r="K4" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="L4" s="30" t="s">
+      <c r="L4" s="29" t="s">
         <v>24</v>
       </c>
       <c r="M4" s="28" t="s">
@@ -8439,7 +9268,7 @@
       <c r="K6" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="L6" s="30" t="s">
+      <c r="L6" s="29" t="s">
         <v>56</v>
       </c>
       <c r="M6" s="104" t="s">
@@ -8478,7 +9307,7 @@
       <c r="K7" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="L7" s="30" t="s">
+      <c r="L7" s="29" t="s">
         <v>56</v>
       </c>
       <c r="M7" s="20" t="s">
@@ -8505,7 +9334,7 @@
       <c r="K8" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="L8" s="30" t="s">
+      <c r="L8" s="29" t="s">
         <v>56</v>
       </c>
       <c r="M8" s="20"/>
@@ -8528,7 +9357,7 @@
       <c r="K9" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="L9" s="30" t="s">
+      <c r="L9" s="29" t="s">
         <v>56</v>
       </c>
       <c r="M9" s="20"/>
@@ -8551,7 +9380,7 @@
       <c r="K10" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="L10" s="30" t="s">
+      <c r="L10" s="29" t="s">
         <v>56</v>
       </c>
       <c r="M10" s="20"/>
@@ -8592,7 +9421,7 @@
       <c r="K11" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="L11" s="30" t="s">
+      <c r="L11" s="29" t="s">
         <v>24</v>
       </c>
       <c r="M11" s="23" t="s">
@@ -8657,7 +9486,7 @@
       <c r="K13" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="L13" s="30" t="s">
+      <c r="L13" s="29" t="s">
         <v>56</v>
       </c>
       <c r="M13" s="20" t="s">
@@ -8703,7 +9532,7 @@
       <c r="K14" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="L14" s="30" t="s">
+      <c r="L14" s="29" t="s">
         <v>24</v>
       </c>
       <c r="M14" s="20" t="s">
@@ -8748,7 +9577,7 @@
       <c r="K15" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="L15" s="30" t="s">
+      <c r="L15" s="29" t="s">
         <v>56</v>
       </c>
       <c r="M15" s="20" t="s">
@@ -8789,7 +9618,7 @@
       <c r="K16" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="L16" s="30" t="s">
+      <c r="L16" s="29" t="s">
         <v>24</v>
       </c>
       <c r="M16" s="20" t="s">
@@ -8847,7 +9676,7 @@
       <c r="K18" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="L18" s="30" t="s">
+      <c r="L18" s="29" t="s">
         <v>56</v>
       </c>
       <c r="M18" s="20" t="s">
@@ -8883,7 +9712,7 @@
       <c r="K19" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="L19" s="30" t="s">
+      <c r="L19" s="29" t="s">
         <v>56</v>
       </c>
       <c r="M19" s="88" t="s">
@@ -8920,7 +9749,7 @@
       <c r="K20" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="L20" s="30" t="s">
+      <c r="L20" s="29" t="s">
         <v>56</v>
       </c>
       <c r="M20" s="88" t="s">
@@ -8954,7 +9783,7 @@
       <c r="K21" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="L21" s="30" t="s">
+      <c r="L21" s="29" t="s">
         <v>32</v>
       </c>
       <c r="M21" s="105" t="s">
@@ -8991,7 +9820,7 @@
       <c r="K22" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="L22" s="30" t="s">
+      <c r="L22" s="29" t="s">
         <v>24</v>
       </c>
       <c r="M22" s="106" t="s">
@@ -9010,7 +9839,7 @@
       <c r="G23" s="20"/>
       <c r="H23" s="23"/>
       <c r="I23" s="20"/>
-      <c r="L23" s="30"/>
+      <c r="L23" s="29"/>
       <c r="N23" s="20"/>
       <c r="O23" s="20"/>
       <c r="P23" s="20"/>
@@ -9023,7 +9852,7 @@
       <c r="H24" s="20"/>
       <c r="I24" s="20"/>
       <c r="J24" s="24"/>
-      <c r="L24" s="30"/>
+      <c r="L24" s="29"/>
       <c r="N24" s="20"/>
       <c r="O24" s="20"/>
       <c r="P24" s="20"/>
@@ -9034,7 +9863,7 @@
       <c r="G25" s="20"/>
       <c r="H25" s="20"/>
       <c r="I25" s="89"/>
-      <c r="L25" s="30"/>
+      <c r="L25" s="29"/>
       <c r="N25" s="20"/>
       <c r="O25" s="20"/>
       <c r="P25" s="20"/>
@@ -9043,21 +9872,21 @@
       <c r="F26" s="20"/>
       <c r="G26" s="20"/>
       <c r="H26" s="20"/>
-      <c r="L26" s="30"/>
+      <c r="L26" s="29"/>
     </row>
     <row r="27" ht="101" customHeight="1" spans="1:16">
       <c r="E27" s="20"/>
       <c r="F27" s="20"/>
       <c r="G27" s="20"/>
       <c r="H27" s="20"/>
-      <c r="L27" s="30"/>
+      <c r="L27" s="29"/>
     </row>
     <row r="28" ht="101" customHeight="1" spans="1:16">
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
       <c r="G28" s="20"/>
       <c r="H28" s="20"/>
-      <c r="L28" s="30"/>
+      <c r="L28" s="29"/>
       <c r="P28" s="20"/>
     </row>
     <row r="29" ht="127" customHeight="1" spans="1:16">
@@ -9065,21 +9894,21 @@
       <c r="F29" s="20"/>
       <c r="G29" s="20"/>
       <c r="I29" s="20"/>
-      <c r="L29" s="30"/>
+      <c r="L29" s="29"/>
       <c r="P29" s="20"/>
     </row>
     <row r="30" ht="127" customHeight="1" spans="1:16">
       <c r="F30" s="20"/>
       <c r="G30" s="20"/>
       <c r="I30" s="20"/>
-      <c r="L30" s="30"/>
+      <c r="L30" s="29"/>
       <c r="P30" s="20"/>
     </row>
     <row r="31" ht="127" customHeight="1" spans="1:16">
       <c r="F31" s="20"/>
       <c r="G31" s="20"/>
       <c r="I31" s="20"/>
-      <c r="L31" s="30"/>
+      <c r="L31" s="29"/>
       <c r="P31" s="20"/>
     </row>
     <row r="32" ht="127" customHeight="1" spans="1:16">
@@ -9087,7 +9916,7 @@
       <c r="F32" s="20"/>
       <c r="G32" s="20"/>
       <c r="I32" s="20"/>
-      <c r="L32" s="30"/>
+      <c r="L32" s="29"/>
       <c r="P32" s="20"/>
     </row>
     <row r="33" ht="30" customHeight="1" spans="1:17">
@@ -9112,14 +9941,14 @@
       <c r="E34" s="20"/>
       <c r="G34" s="20"/>
       <c r="I34" s="20"/>
-      <c r="L34" s="30"/>
+      <c r="L34" s="29"/>
       <c r="P34" s="20"/>
     </row>
     <row r="35" ht="127" customHeight="1" spans="1:17">
       <c r="E35" s="20"/>
       <c r="G35" s="20"/>
       <c r="I35" s="20"/>
-      <c r="L35" s="30"/>
+      <c r="L35" s="29"/>
       <c r="P35" s="20"/>
     </row>
     <row r="36" ht="127" customHeight="1" spans="1:17">
@@ -9127,7 +9956,7 @@
       <c r="F36" s="20"/>
       <c r="G36" s="20"/>
       <c r="I36" s="20"/>
-      <c r="L36" s="30"/>
+      <c r="L36" s="29"/>
       <c r="P36" s="20"/>
       <c r="Q36" s="91"/>
     </row>
@@ -9136,7 +9965,7 @@
       <c r="G37" s="20"/>
       <c r="I37" s="20"/>
       <c r="J37" s="92"/>
-      <c r="L37" s="30"/>
+      <c r="L37" s="29"/>
       <c r="P37" s="20"/>
     </row>
     <row r="38" ht="92" customHeight="1" spans="1:17">
@@ -9146,7 +9975,7 @@
       <c r="H38" s="20"/>
       <c r="I38" s="20"/>
       <c r="J38" s="92"/>
-      <c r="L38" s="30"/>
+      <c r="L38" s="29"/>
       <c r="N38" s="20"/>
       <c r="O38" s="20"/>
       <c r="P38" s="20"/>
@@ -9157,7 +9986,7 @@
       <c r="G39" s="20"/>
       <c r="I39" s="20"/>
       <c r="J39" s="92"/>
-      <c r="L39" s="30"/>
+      <c r="L39" s="29"/>
       <c r="O39" s="20"/>
       <c r="P39" s="23"/>
     </row>
@@ -9166,7 +9995,7 @@
       <c r="E41" s="28"/>
       <c r="G41" s="20"/>
       <c r="I41" s="20"/>
-      <c r="L41" s="30"/>
+      <c r="L41" s="29"/>
       <c r="M41" s="28"/>
       <c r="O41" s="20"/>
       <c r="P41" s="20"/>
@@ -9175,7 +10004,7 @@
       <c r="D42" s="20"/>
       <c r="E42" s="20"/>
       <c r="G42" s="20"/>
-      <c r="L42" s="30"/>
+      <c r="L42" s="29"/>
       <c r="O42" s="20"/>
       <c r="P42" s="93"/>
     </row>
@@ -9281,42 +10110,42 @@
       </c>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="71" t="s">
         <v>136</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="72"/>
-      <c r="P2" s="72"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="71"/>
+      <c r="N2" s="71"/>
+      <c r="O2" s="71"/>
+      <c r="P2" s="71"/>
     </row>
     <row r="3" ht="32" customHeight="1" spans="1:17">
-      <c r="A3" s="72"/>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="72"/>
-      <c r="O3" s="72"/>
-      <c r="P3" s="72"/>
+      <c r="A3" s="71"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="71"/>
+      <c r="O3" s="71"/>
+      <c r="P3" s="71"/>
     </row>
     <row r="4" customFormat="1" ht="75" customHeight="1" spans="1:17">
       <c r="Q4" s="4"/>
@@ -9347,7 +10176,7 @@
       <c r="K5" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="L5" s="41" t="s">
+      <c r="L5" s="40" t="s">
         <v>24</v>
       </c>
       <c r="M5" s="21" t="s">
@@ -9389,7 +10218,7 @@
       <c r="K6" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="41" t="s">
+      <c r="L6" s="40" t="s">
         <v>32</v>
       </c>
       <c r="M6" s="96" t="s">
@@ -9457,7 +10286,7 @@
       <c r="K8" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="L8" s="41" t="s">
+      <c r="L8" s="40" t="s">
         <v>56</v>
       </c>
       <c r="M8" s="96" t="s">
@@ -9592,7 +10421,7 @@
       <c r="K11" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="L11" s="41" t="s">
+      <c r="L11" s="40" t="s">
         <v>56</v>
       </c>
       <c r="M11" s="96" t="s">
@@ -9631,7 +10460,7 @@
       <c r="K12" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="L12" s="41" t="s">
+      <c r="L12" s="40" t="s">
         <v>24</v>
       </c>
       <c r="M12" s="21" t="s">
@@ -9667,7 +10496,7 @@
       <c r="K13" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="L13" s="41" t="s">
+      <c r="L13" s="40" t="s">
         <v>56</v>
       </c>
       <c r="M13" s="21" t="s">
@@ -9767,7 +10596,7 @@
       <c r="K16" s="20" t="s">
         <v>200</v>
       </c>
-      <c r="L16" s="41" t="s">
+      <c r="L16" s="40" t="s">
         <v>24</v>
       </c>
       <c r="N16" s="20"/>
@@ -9802,7 +10631,7 @@
       <c r="I18" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="L18" s="41"/>
+      <c r="L18" s="40"/>
       <c r="N18" s="20"/>
       <c r="O18" s="20"/>
       <c r="P18" s="20"/>
@@ -9813,7 +10642,7 @@
       <c r="I19" s="20" t="s">
         <v>203</v>
       </c>
-      <c r="L19" s="41"/>
+      <c r="L19" s="40"/>
       <c r="N19" s="20"/>
       <c r="O19" s="20"/>
       <c r="P19" s="20"/>
@@ -9859,7 +10688,7 @@
       <c r="N20" s="9"/>
       <c r="O20" s="9"/>
       <c r="P20" s="9"/>
-      <c r="Q20" s="32" t="s">
+      <c r="Q20" s="31" t="s">
         <v>208</v>
       </c>
     </row>
@@ -9911,7 +10740,7 @@
       <c r="K22" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="L22" s="41" t="s">
+      <c r="L22" s="40" t="s">
         <v>24</v>
       </c>
       <c r="M22" s="21" t="s">
@@ -9952,7 +10781,7 @@
       <c r="K23" s="20" t="s">
         <v>221</v>
       </c>
-      <c r="L23" s="41" t="s">
+      <c r="L23" s="40" t="s">
         <v>24</v>
       </c>
       <c r="M23" s="21" t="s">
@@ -9988,7 +10817,7 @@
       <c r="K24" s="20" t="s">
         <v>226</v>
       </c>
-      <c r="L24" s="41" t="s">
+      <c r="L24" s="40" t="s">
         <v>24</v>
       </c>
       <c r="M24" s="21" t="s">
@@ -10024,7 +10853,7 @@
       <c r="K25" s="20" t="s">
         <v>230</v>
       </c>
-      <c r="L25" s="41" t="s">
+      <c r="L25" s="40" t="s">
         <v>56</v>
       </c>
       <c r="M25" s="21" t="s">
@@ -10039,12 +10868,12 @@
       </c>
     </row>
     <row r="26" spans="1:17">
-      <c r="L26" s="30"/>
+      <c r="L26" s="29"/>
       <c r="P26" s="20"/>
     </row>
     <row r="27" spans="1:17">
       <c r="E27" s="20"/>
-      <c r="L27" s="30"/>
+      <c r="L27" s="29"/>
       <c r="P27" s="20"/>
     </row>
     <row r="28" spans="1:17">
@@ -10067,29 +10896,29 @@
     </row>
     <row r="29" spans="1:17">
       <c r="E29" s="20"/>
-      <c r="L29" s="30"/>
+      <c r="L29" s="29"/>
       <c r="P29" s="20"/>
     </row>
     <row r="30" spans="1:17">
       <c r="E30" s="20"/>
-      <c r="L30" s="30"/>
+      <c r="L30" s="29"/>
       <c r="P30" s="20"/>
     </row>
     <row r="31" spans="1:17">
       <c r="E31" s="20"/>
-      <c r="L31" s="30"/>
+      <c r="L31" s="29"/>
       <c r="P31" s="20"/>
       <c r="Q31" s="100"/>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="92"/>
-      <c r="L32" s="30"/>
+      <c r="L32" s="29"/>
       <c r="P32" s="20"/>
     </row>
     <row r="33" spans="4:16">
       <c r="E33" s="20"/>
       <c r="J33" s="92"/>
-      <c r="L33" s="30"/>
+      <c r="L33" s="29"/>
       <c r="N33" s="20"/>
       <c r="O33" s="20"/>
       <c r="P33" s="20"/>
@@ -10097,14 +10926,14 @@
     <row r="34" ht="16.2" spans="4:16">
       <c r="E34" s="20"/>
       <c r="J34" s="92"/>
-      <c r="L34" s="30"/>
+      <c r="L34" s="29"/>
       <c r="O34" s="20"/>
       <c r="P34" s="23"/>
     </row>
     <row r="36" spans="4:16">
       <c r="D36" s="20"/>
       <c r="E36" s="28"/>
-      <c r="L36" s="30"/>
+      <c r="L36" s="29"/>
       <c r="M36" s="96"/>
       <c r="O36" s="20"/>
       <c r="P36" s="20"/>
@@ -10112,7 +10941,7 @@
     <row r="37" spans="4:16">
       <c r="D37" s="20"/>
       <c r="E37" s="20"/>
-      <c r="L37" s="30"/>
+      <c r="L37" s="29"/>
       <c r="O37" s="20"/>
       <c r="P37" s="93"/>
     </row>
@@ -10692,7 +11521,7 @@
       <c r="N3" s="9"/>
       <c r="O3" s="9"/>
       <c r="P3" s="9"/>
-      <c r="Q3" s="32" t="s">
+      <c r="Q3" s="31" t="s">
         <v>208</v>
       </c>
     </row>
@@ -10931,10 +11760,10 @@
   <sheetPr/>
   <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
+      <selection pane="bottomLeft" activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -11116,7 +11945,7 @@
       <c r="K5" s="26" t="s">
         <v>308</v>
       </c>
-      <c r="L5" s="30" t="s">
+      <c r="L5" s="29" t="s">
         <v>56</v>
       </c>
       <c r="M5" s="20" t="s">
@@ -11160,7 +11989,7 @@
       <c r="K6" s="26" t="s">
         <v>314</v>
       </c>
-      <c r="L6" s="30" t="s">
+      <c r="L6" s="29" t="s">
         <v>56</v>
       </c>
       <c r="M6" s="20" t="s">
@@ -11197,7 +12026,7 @@
       <c r="K7" s="20" t="s">
         <v>318</v>
       </c>
-      <c r="L7" s="30" t="s">
+      <c r="L7" s="29" t="s">
         <v>56</v>
       </c>
       <c r="M7" s="28" t="s">
@@ -11232,7 +12061,7 @@
       <c r="K8" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="L8" s="30" t="s">
+      <c r="L8" s="29" t="s">
         <v>24</v>
       </c>
       <c r="M8" s="20" t="s">
@@ -11270,7 +12099,7 @@
       <c r="K9" s="20" t="s">
         <v>329</v>
       </c>
-      <c r="L9" s="30" t="s">
+      <c r="L9" s="29" t="s">
         <v>24</v>
       </c>
       <c r="M9" s="20" t="s">
@@ -11316,7 +12145,7 @@
       <c r="K10" s="20" t="s">
         <v>337</v>
       </c>
-      <c r="L10" s="30" t="s">
+      <c r="L10" s="29" t="s">
         <v>56</v>
       </c>
       <c r="M10" s="87" t="s">
@@ -11362,7 +12191,7 @@
       <c r="K11" s="20" t="s">
         <v>345</v>
       </c>
-      <c r="L11" s="30" t="s">
+      <c r="L11" s="29" t="s">
         <v>32</v>
       </c>
       <c r="M11" s="88" t="s">
@@ -11408,7 +12237,7 @@
       <c r="K12" s="20" t="s">
         <v>354</v>
       </c>
-      <c r="L12" s="30" t="s">
+      <c r="L12" s="29" t="s">
         <v>24</v>
       </c>
       <c r="M12" s="87" t="s">
@@ -11454,7 +12283,7 @@
       <c r="K13" s="20" t="s">
         <v>363</v>
       </c>
-      <c r="L13" s="30" t="s">
+      <c r="L13" s="29" t="s">
         <v>24</v>
       </c>
       <c r="M13" s="20" t="s">
@@ -11500,7 +12329,7 @@
       <c r="K14" s="20" t="s">
         <v>371</v>
       </c>
-      <c r="L14" s="30" t="s">
+      <c r="L14" s="29" t="s">
         <v>32</v>
       </c>
       <c r="N14" s="20"/>
@@ -11543,7 +12372,7 @@
       <c r="K15" s="20" t="s">
         <v>379</v>
       </c>
-      <c r="L15" s="30" t="s">
+      <c r="L15" s="29" t="s">
         <v>32</v>
       </c>
       <c r="N15" s="20"/>
@@ -11584,7 +12413,7 @@
       <c r="K16" s="20" t="s">
         <v>383</v>
       </c>
-      <c r="L16" s="30" t="s">
+      <c r="L16" s="29" t="s">
         <v>24</v>
       </c>
       <c r="M16" s="20" t="s">
@@ -11622,7 +12451,7 @@
       <c r="K17" s="20" t="s">
         <v>389</v>
       </c>
-      <c r="L17" s="30" t="s">
+      <c r="L17" s="29" t="s">
         <v>32</v>
       </c>
       <c r="M17" s="20" t="s">
@@ -11658,7 +12487,7 @@
       <c r="K18" s="20" t="s">
         <v>394</v>
       </c>
-      <c r="L18" s="30" t="s">
+      <c r="L18" s="29" t="s">
         <v>32</v>
       </c>
       <c r="M18" s="20" t="s">
@@ -11694,7 +12523,7 @@
       <c r="K19" s="20" t="s">
         <v>398</v>
       </c>
-      <c r="L19" s="30" t="s">
+      <c r="L19" s="29" t="s">
         <v>24</v>
       </c>
       <c r="M19" s="20" t="s">
@@ -11731,7 +12560,7 @@
       <c r="K20" s="20" t="s">
         <v>403</v>
       </c>
-      <c r="L20" s="30" t="s">
+      <c r="L20" s="29" t="s">
         <v>24</v>
       </c>
       <c r="M20" s="20" t="s">
@@ -11765,7 +12594,7 @@
       <c r="K21" s="20" t="s">
         <v>408</v>
       </c>
-      <c r="L21" s="30" t="s">
+      <c r="L21" s="29" t="s">
         <v>24</v>
       </c>
       <c r="M21" s="20" t="s">
@@ -11807,7 +12636,7 @@
       <c r="K22" s="20" t="s">
         <v>416</v>
       </c>
-      <c r="L22" s="30" t="s">
+      <c r="L22" s="29" t="s">
         <v>32</v>
       </c>
       <c r="M22" s="20" t="s">
@@ -11869,7 +12698,7 @@
       <c r="K24" s="20" t="s">
         <v>425</v>
       </c>
-      <c r="L24" s="30" t="s">
+      <c r="L24" s="29" t="s">
         <v>32</v>
       </c>
       <c r="M24" s="20" t="s">
@@ -11908,7 +12737,7 @@
       <c r="K25" s="20" t="s">
         <v>431</v>
       </c>
-      <c r="L25" s="30" t="s">
+      <c r="L25" s="29" t="s">
         <v>32</v>
       </c>
       <c r="M25" s="20" t="s">
@@ -11950,7 +12779,7 @@
       <c r="K26" s="20" t="s">
         <v>438</v>
       </c>
-      <c r="L26" s="30" t="s">
+      <c r="L26" s="29" t="s">
         <v>56</v>
       </c>
       <c r="M26" s="20" t="s">
@@ -11995,7 +12824,7 @@
       <c r="K27" s="20" t="s">
         <v>446</v>
       </c>
-      <c r="L27" s="30" t="s">
+      <c r="L27" s="29" t="s">
         <v>56</v>
       </c>
       <c r="M27" s="20" t="s">
@@ -12039,7 +12868,7 @@
       <c r="K28" s="20" t="s">
         <v>454</v>
       </c>
-      <c r="L28" s="30" t="s">
+      <c r="L28" s="29" t="s">
         <v>56</v>
       </c>
       <c r="M28" s="20" t="s">
@@ -12087,7 +12916,7 @@
       <c r="K29" s="20" t="s">
         <v>461</v>
       </c>
-      <c r="L29" s="30" t="s">
+      <c r="L29" s="29" t="s">
         <v>56</v>
       </c>
       <c r="M29" s="20" t="s">
@@ -12131,7 +12960,7 @@
       <c r="K30" s="20" t="s">
         <v>190</v>
       </c>
-      <c r="L30" s="30" t="s">
+      <c r="L30" s="29" t="s">
         <v>56</v>
       </c>
       <c r="M30" s="28" t="s">
@@ -12175,7 +13004,7 @@
       <c r="K31" s="20" t="s">
         <v>474</v>
       </c>
-      <c r="L31" s="30" t="s">
+      <c r="L31" s="29" t="s">
         <v>56</v>
       </c>
       <c r="M31" s="20" t="s">
@@ -12322,10 +13151,653 @@
   <sheetPr/>
   <dimension ref="A1:Q31"/>
   <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="K6" sqref="K6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <cols>
+    <col min="1" max="2" width="8.36111111111111" style="19" customWidth="1"/>
+    <col min="3" max="3" width="19.7314814814815" style="20" customWidth="1"/>
+    <col min="4" max="4" width="14.7592592592593" style="19" customWidth="1"/>
+    <col min="5" max="5" width="14.9074074074074" style="19" customWidth="1"/>
+    <col min="6" max="6" width="44.962962962963" style="19" customWidth="1"/>
+    <col min="7" max="7" width="12.0185185185185" style="19" customWidth="1"/>
+    <col min="8" max="8" width="20.2592592592593" style="19" customWidth="1"/>
+    <col min="9" max="9" width="23.3981481481481" style="19" customWidth="1"/>
+    <col min="10" max="10" width="38.2962962962963" style="21" customWidth="1"/>
+    <col min="11" max="11" width="23" style="20" customWidth="1"/>
+    <col min="12" max="12" width="9" style="19"/>
+    <col min="13" max="13" width="30.8425925925926" style="20" customWidth="1"/>
+    <col min="14" max="14" width="9" style="19"/>
+    <col min="15" max="15" width="21.9537037037037" style="19" customWidth="1"/>
+    <col min="16" max="16" width="24.4444444444444" style="19" customWidth="1"/>
+    <col min="17" max="17" width="13.8888888888889" style="19"/>
+    <col min="18" max="16384" width="9" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="55" customHeight="1" spans="1:17">
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="22" t="s">
+        <v>296</v>
+      </c>
+      <c r="O1" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="22" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="2" s="13" customFormat="1"/>
+    <row r="3" s="13" customFormat="1"/>
+    <row r="4" spans="1:17">
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="27"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+    </row>
+    <row r="5" ht="171" customHeight="1" spans="1:17">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13">
+        <v>2022</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>500</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>503</v>
+      </c>
+      <c r="H5" s="82" t="s">
+        <v>504</v>
+      </c>
+      <c r="I5" s="13"/>
+      <c r="J5" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="L5" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" s="20" t="s">
+        <v>507</v>
+      </c>
+      <c r="N5" s="13"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="13"/>
+    </row>
+    <row r="6" ht="153" customHeight="1" spans="1:17">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="13"/>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="31"/>
+    </row>
+    <row r="8" ht="115" customHeight="1" spans="1:17">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="32"/>
+    </row>
+    <row r="9" ht="110" customHeight="1" spans="1:17">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+    </row>
+    <row r="12" ht="77" customHeight="1" spans="1:17">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+    </row>
+    <row r="13" ht="59" customHeight="1" spans="1:17">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+    </row>
+    <row r="14" ht="101" customHeight="1" spans="1:17">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+    </row>
+    <row r="15" ht="101" customHeight="1" spans="1:17">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+    </row>
+    <row r="16" ht="127" customHeight="1" spans="1:17">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+    </row>
+    <row r="17" ht="127" customHeight="1" spans="1:17">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+    </row>
+    <row r="18" ht="127" customHeight="1" spans="1:17">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+    </row>
+    <row r="19" ht="127" customHeight="1" spans="1:17">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
+    </row>
+    <row r="20" ht="30" customHeight="1" spans="1:17">
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
+    </row>
+    <row r="21" ht="127" customHeight="1" spans="1:17">
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
+    </row>
+    <row r="22" ht="127" customHeight="1" spans="1:17">
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+    </row>
+    <row r="23" ht="127" customHeight="1" spans="1:17">
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
+    </row>
+    <row r="24" ht="143" customHeight="1" spans="1:17">
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="13"/>
+    </row>
+    <row r="25" ht="92" customHeight="1" spans="1:17">
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
+    </row>
+    <row r="26" ht="175" customHeight="1" spans="1:17">
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13"/>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="13"/>
+    </row>
+    <row r="28" ht="168" customHeight="1" spans="1:17">
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13"/>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="13"/>
+    </row>
+    <row r="30" ht="71" customHeight="1" spans="1:17">
+      <c r="A30" s="13"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="13"/>
+      <c r="Q30" s="13"/>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="13"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="13"/>
+    </row>
+  </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:P30" etc:filterBottomFollowUsedRange="0">
+    <extLst/>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:Q31"/>
+  <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="$A1:$XFD1"/>
+      <selection pane="bottomLeft" activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -12421,7 +13893,7 @@
         <v>2009</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>39</v>
@@ -12430,35 +13902,35 @@
         <v>149</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="J5" s="108" t="s">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>506</v>
-      </c>
-      <c r="L5" s="30" t="s">
+        <v>514</v>
+      </c>
+      <c r="L5" s="29" t="s">
         <v>24</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="N5" s="13"/>
       <c r="O5" s="9" t="s">
-        <v>508</v>
-      </c>
-      <c r="P5" s="31" t="s">
-        <v>509</v>
+        <v>516</v>
+      </c>
+      <c r="P5" s="30" t="s">
+        <v>517</v>
       </c>
       <c r="Q5" s="13"/>
     </row>
@@ -12468,7 +13940,7 @@
         <v>2014</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>39</v>
@@ -12477,35 +13949,35 @@
         <v>305</v>
       </c>
       <c r="F6" s="13" t="s">
+        <v>519</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>520</v>
+      </c>
+      <c r="H6" s="13" t="s">
         <v>511</v>
       </c>
-      <c r="G6" s="9" t="s">
-        <v>512</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>503</v>
-      </c>
       <c r="I6" s="9" t="s">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="J6" s="108" t="s">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>515</v>
-      </c>
-      <c r="L6" s="30" t="s">
+        <v>523</v>
+      </c>
+      <c r="L6" s="29" t="s">
         <v>24</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="N6" s="13"/>
       <c r="O6" s="9" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="Q6" s="13"/>
     </row>
@@ -12515,7 +13987,7 @@
         <v>2025</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>39</v>
@@ -12524,38 +13996,38 @@
         <v>305</v>
       </c>
       <c r="F7" s="9" t="s">
+        <v>519</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>528</v>
+      </c>
+      <c r="H7" s="13" t="s">
         <v>511</v>
       </c>
-      <c r="G7" s="9" t="s">
-        <v>520</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>503</v>
-      </c>
       <c r="I7" s="9" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>523</v>
-      </c>
-      <c r="L7" s="30" t="s">
+        <v>531</v>
+      </c>
+      <c r="L7" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="M7" s="31" t="s">
-        <v>524</v>
+      <c r="M7" s="30" t="s">
+        <v>532</v>
       </c>
       <c r="N7" s="13"/>
       <c r="O7" s="9" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="P7" s="9" t="s">
-        <v>526</v>
-      </c>
-      <c r="Q7" s="32" t="s">
-        <v>527</v>
+        <v>534</v>
+      </c>
+      <c r="Q7" s="31" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="8" ht="115" customHeight="1" spans="1:17">
@@ -12564,7 +14036,7 @@
         <v>2020</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>39</v>
@@ -12573,40 +14045,40 @@
         <v>305</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>529</v>
+        <v>537</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>531</v>
+        <v>539</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>532</v>
+        <v>540</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="K8" s="13" t="s">
         <v>483</v>
       </c>
-      <c r="L8" s="30" t="s">
+      <c r="L8" s="29" t="s">
         <v>56</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>535</v>
+        <v>543</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>536</v>
+        <v>544</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>537</v>
-      </c>
-      <c r="Q8" s="33" t="s">
-        <v>538</v>
+        <v>545</v>
+      </c>
+      <c r="Q8" s="32" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="9" ht="110" customHeight="1" spans="1:17">
@@ -13060,7 +14532,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:Q7"/>
@@ -13090,186 +14562,186 @@
   </cols>
   <sheetData>
     <row r="1" ht="24" spans="1:17">
-      <c r="A1" s="34" t="s">
-        <v>539</v>
-      </c>
-      <c r="B1" s="35" t="s">
+      <c r="A1" s="33" t="s">
+        <v>547</v>
+      </c>
+      <c r="B1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="35" t="s">
-        <v>540</v>
-      </c>
-      <c r="E1" s="37" t="s">
-        <v>541</v>
-      </c>
-      <c r="F1" s="35" t="s">
+      <c r="D1" s="34" t="s">
+        <v>548</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>549</v>
+      </c>
+      <c r="F1" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="35" t="s">
-        <v>542</v>
-      </c>
-      <c r="H1" s="36" t="s">
-        <v>543</v>
-      </c>
-      <c r="I1" s="38" t="s">
+      <c r="G1" s="34" t="s">
+        <v>550</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>551</v>
+      </c>
+      <c r="I1" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="35" t="s">
+      <c r="J1" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="36" t="s">
-        <v>544</v>
-      </c>
-      <c r="L1" s="35" t="s">
-        <v>545</v>
-      </c>
-      <c r="M1" s="35" t="s">
+      <c r="K1" s="35" t="s">
+        <v>552</v>
+      </c>
+      <c r="L1" s="34" t="s">
+        <v>553</v>
+      </c>
+      <c r="M1" s="34" t="s">
         <v>296</v>
       </c>
-      <c r="N1" s="35" t="s">
+      <c r="N1" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="35" t="s">
-        <v>546</v>
-      </c>
-      <c r="P1" s="74" t="s">
-        <v>547</v>
-      </c>
-      <c r="Q1" s="39" t="s">
+      <c r="O1" s="34" t="s">
+        <v>554</v>
+      </c>
+      <c r="P1" s="73" t="s">
+        <v>555</v>
+      </c>
+      <c r="Q1" s="38" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" ht="17.4" spans="1:17">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="74" t="s">
         <v>298</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="75"/>
-      <c r="N2" s="75"/>
-      <c r="O2" s="75"/>
-      <c r="P2" s="75"/>
-      <c r="Q2" s="75"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="74"/>
+      <c r="O2" s="74"/>
+      <c r="P2" s="74"/>
+      <c r="Q2" s="74"/>
     </row>
     <row r="3" ht="109" customHeight="1" spans="1:17">
       <c r="A3" s="2" t="s">
-        <v>548</v>
+        <v>556</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="76" t="s">
-        <v>549</v>
+      <c r="C3" s="75" t="s">
+        <v>557</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="41" t="s">
+      <c r="F3" s="40" t="s">
         <v>29</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>300</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>550</v>
+        <v>558</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>551</v>
-      </c>
-      <c r="J3" s="41" t="s">
+        <v>559</v>
+      </c>
+      <c r="J3" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="77" t="s">
-        <v>552</v>
+      <c r="K3" s="76" t="s">
+        <v>560</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>553</v>
+        <v>561</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
-      <c r="P3" s="78" t="s">
-        <v>554</v>
+      <c r="P3" s="77" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="4" customFormat="1" ht="30" customHeight="1" spans="1:17">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="74" t="s">
         <v>418</v>
       </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="75"/>
-      <c r="L4" s="75"/>
-      <c r="M4" s="75"/>
-      <c r="N4" s="75"/>
-      <c r="O4" s="75"/>
-      <c r="P4" s="75"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="74"/>
+      <c r="O4" s="74"/>
+      <c r="P4" s="74"/>
     </row>
     <row r="5" ht="137" customHeight="1" spans="1:17">
-      <c r="A5" s="80" t="s">
-        <v>555</v>
+      <c r="A5" s="79" t="s">
+        <v>563</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="76" t="s">
+      <c r="C5" s="75" t="s">
         <v>305</v>
       </c>
-      <c r="D5" s="41" t="s">
-        <v>556</v>
+      <c r="D5" s="40" t="s">
+        <v>564</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>558</v>
+        <v>566</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="H5" s="81" t="s">
-        <v>559</v>
+      <c r="H5" s="80" t="s">
+        <v>567</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>560</v>
-      </c>
-      <c r="J5" s="41" t="s">
+        <v>568</v>
+      </c>
+      <c r="J5" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="K5" s="77" t="s">
-        <v>561</v>
+      <c r="K5" s="76" t="s">
+        <v>569</v>
       </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
-      <c r="P5" s="57" t="s">
-        <v>562</v>
+      <c r="P5" s="56" t="s">
+        <v>570</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>563</v>
+        <v>571</v>
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="82"/>
+      <c r="A7" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -13279,800 +14751,4 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:O20"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.6"/>
-  <cols>
-    <col min="1" max="1" width="18.4259259259259" style="13" customWidth="1"/>
-    <col min="2" max="2" width="8.88888888888889" style="13"/>
-    <col min="3" max="4" width="8.88888888888889" style="9"/>
-    <col min="5" max="5" width="19.8703703703704" style="9" customWidth="1"/>
-    <col min="6" max="6" width="15.1574074074074" style="9" customWidth="1"/>
-    <col min="7" max="7" width="8.88888888888889" style="9"/>
-    <col min="8" max="8" width="37.1203703703704" style="13" customWidth="1"/>
-    <col min="9" max="9" width="20" style="9" customWidth="1"/>
-    <col min="10" max="10" width="15.0277777777778" style="13" customWidth="1"/>
-    <col min="11" max="11" width="29.3981481481481" style="9" customWidth="1"/>
-    <col min="12" max="12" width="8.88888888888889" style="13"/>
-    <col min="13" max="13" width="27.7037037037037" style="13" customWidth="1"/>
-    <col min="14" max="14" width="26.1388888888889" style="13" customWidth="1"/>
-    <col min="15" max="15" width="56.8611111111111" style="13" hidden="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.88888888888889" style="13"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="35" customHeight="1" spans="1:15">
-      <c r="A1" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="60" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>564</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="23" t="s">
-        <v>565</v>
-      </c>
-      <c r="I1" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="61" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="60" t="s">
-        <v>566</v>
-      </c>
-      <c r="L1" s="61" t="s">
-        <v>296</v>
-      </c>
-      <c r="M1" s="62" t="s">
-        <v>567</v>
-      </c>
-      <c r="N1" s="62" t="s">
-        <v>15</v>
-      </c>
-      <c r="O1" s="60" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="2" ht="132" spans="1:15">
-      <c r="A2" s="20" t="s">
-        <v>568</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>569</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>570</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>571</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>300</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>572</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>573</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="K2" s="63" t="s">
-        <v>574</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>575</v>
-      </c>
-      <c r="O2" s="12" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="3" ht="187.2" spans="1:15">
-      <c r="A3" s="20" t="s">
-        <v>577</v>
-      </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="9" t="s">
-        <v>578</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>579</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>580</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>581</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>582</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>583</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>584</v>
-      </c>
-      <c r="J3" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="109" t="s">
-        <v>585</v>
-      </c>
-      <c r="L3" s="8"/>
-      <c r="N3" s="9" t="s">
-        <v>586</v>
-      </c>
-      <c r="O3" s="12"/>
-    </row>
-    <row r="4" ht="198" spans="1:15">
-      <c r="A4" s="9" t="s">
-        <v>587</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>569</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>588</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>571</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>589</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>590</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>591</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="K4" s="63" t="s">
-        <v>592</v>
-      </c>
-      <c r="O4" s="65" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="5" ht="125.4" spans="1:15">
-      <c r="A5" s="23" t="s">
-        <v>594</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>349</v>
-      </c>
-      <c r="C5" s="66" t="s">
-        <v>595</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>596</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>597</v>
-      </c>
-      <c r="I5" s="66" t="s">
-        <v>598</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="K5" s="63" t="s">
-        <v>599</v>
-      </c>
-      <c r="O5" s="67" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="6" ht="145.2" spans="1:15">
-      <c r="A6" s="23" t="s">
-        <v>601</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="66" t="s">
-        <v>602</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>604</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>605</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>606</v>
-      </c>
-      <c r="I6" s="66" t="s">
-        <v>607</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>608</v>
-      </c>
-      <c r="N6" s="9" t="s">
-        <v>609</v>
-      </c>
-      <c r="O6" s="68" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="7" ht="156" spans="1:15">
-      <c r="A7" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="66" t="s">
-        <v>612</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>613</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>614</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="G7" s="69" t="s">
-        <v>615</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>616</v>
-      </c>
-      <c r="I7" s="66" t="s">
-        <v>617</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="K7" s="63" t="s">
-        <v>618</v>
-      </c>
-      <c r="L7" s="13" t="s">
-        <v>619</v>
-      </c>
-      <c r="N7" s="9" t="s">
-        <v>620</v>
-      </c>
-      <c r="O7" s="70" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="8" ht="156.6" spans="1:15">
-      <c r="A8" s="9" t="s">
-        <v>622</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="66" t="s">
-        <v>623</v>
-      </c>
-      <c r="D8" s="69" t="s">
-        <v>624</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>625</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>626</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>628</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>629</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="K8" s="63" t="s">
-        <v>630</v>
-      </c>
-      <c r="N8" s="9" t="s">
-        <v>631</v>
-      </c>
-      <c r="O8" s="68" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="9" ht="93.6" spans="1:15">
-      <c r="A9" s="9" t="s">
-        <v>633</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="66" t="s">
-        <v>634</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>635</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>636</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="K9" s="63" t="s">
-        <v>637</v>
-      </c>
-      <c r="N9" s="9" t="s">
-        <v>638</v>
-      </c>
-      <c r="O9" s="71" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="10" ht="158.4" spans="1:15">
-      <c r="A10" s="9" t="s">
-        <v>640</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>641</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>635</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>642</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>643</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>644</v>
-      </c>
-      <c r="O10" s="71" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="11" ht="156" spans="1:15">
-      <c r="A11" s="9" t="s">
-        <v>646</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>647</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>635</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>648</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>649</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>650</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>651</v>
-      </c>
-      <c r="N11" s="9" t="s">
-        <v>652</v>
-      </c>
-      <c r="O11" s="70" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="12" ht="158.4" spans="1:15">
-      <c r="A12" s="23" t="s">
-        <v>654</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="66" t="s">
-        <v>655</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>613</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>656</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>657</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>658</v>
-      </c>
-      <c r="I12" s="66" t="s">
-        <v>659</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>660</v>
-      </c>
-      <c r="K12" s="63" t="s">
-        <v>661</v>
-      </c>
-      <c r="N12" s="9" t="s">
-        <v>662</v>
-      </c>
-      <c r="O12" s="65" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="13" ht="38" customHeight="1" spans="1:15">
-      <c r="A13" s="72" t="s">
-        <v>664</v>
-      </c>
-      <c r="B13" s="72"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="72"/>
-      <c r="I13" s="73"/>
-      <c r="J13" s="72"/>
-      <c r="K13" s="73"/>
-      <c r="L13" s="72"/>
-      <c r="M13" s="72"/>
-      <c r="N13" s="72"/>
-      <c r="O13" s="72"/>
-    </row>
-    <row r="14" ht="124.8" spans="1:15">
-      <c r="A14" s="13" t="s">
-        <v>665</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>666</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>667</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>668</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>669</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="H14" s="108" t="s">
-        <v>670</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>671</v>
-      </c>
-      <c r="J14" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="15" ht="109.2" spans="1:15">
-      <c r="A15" s="13" t="s">
-        <v>673</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>666</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>667</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>668</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>669</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="H15" s="108" t="s">
-        <v>674</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>675</v>
-      </c>
-      <c r="J15" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="K15" s="9" t="s">
-        <v>676</v>
-      </c>
-      <c r="M15" s="9" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="16" ht="62.4" spans="1:15">
-      <c r="A16" s="13" t="s">
-        <v>678</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>679</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>680</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>681</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>682</v>
-      </c>
-      <c r="J16" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="K16" s="9" t="s">
-        <v>683</v>
-      </c>
-      <c r="M16" s="9" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="17" ht="93.6" spans="1:13">
-      <c r="A17" s="13" t="s">
-        <v>685</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>686</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>687</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>688</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>689</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>690</v>
-      </c>
-      <c r="I17" s="9" t="s">
-        <v>691</v>
-      </c>
-      <c r="J17" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="K17" s="9" t="s">
-        <v>692</v>
-      </c>
-      <c r="M17" s="9" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="18" ht="140.4" spans="1:13">
-      <c r="A18" s="13" t="s">
-        <v>694</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>695</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>696</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>697</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>698</v>
-      </c>
-      <c r="H18" s="108" t="s">
-        <v>699</v>
-      </c>
-      <c r="I18" s="9" t="s">
-        <v>700</v>
-      </c>
-      <c r="J18" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="K18" s="9" t="s">
-        <v>701</v>
-      </c>
-      <c r="M18" s="9"/>
-    </row>
-    <row r="19" ht="156" spans="1:13">
-      <c r="A19" s="13" t="s">
-        <v>702</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>602</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>703</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>704</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>705</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>706</v>
-      </c>
-      <c r="H19" s="108" t="s">
-        <v>707</v>
-      </c>
-      <c r="I19" s="9" t="s">
-        <v>708</v>
-      </c>
-      <c r="J19" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="K19" s="9" t="s">
-        <v>709</v>
-      </c>
-      <c r="M19" s="9" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="20" ht="124.8" spans="1:13">
-      <c r="A20" s="13" t="s">
-        <v>711</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>712</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>713</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>714</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="H20" s="108" t="s">
-        <v>715</v>
-      </c>
-      <c r="I20" s="9" t="s">
-        <v>716</v>
-      </c>
-      <c r="J20" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="K20" s="9" t="s">
-        <v>717</v>
-      </c>
-      <c r="M20" s="9" t="s">
-        <v>718</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A13:O13"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
 </file>